--- a/data/trans_orig/P2A_enfcro_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>647956</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>616858</v>
+        <v>616924</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>678492</v>
+        <v>679804</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6280330296654356</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5978910626344599</v>
+        <v>0.5979551101333864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6576302595738837</v>
+        <v>0.6589019556917499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>979</v>
@@ -765,19 +765,19 @@
         <v>998729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>966336</v>
+        <v>969956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1029036</v>
+        <v>1028122</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7594241502938903</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.734793177473691</v>
+        <v>0.7375458701630061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7824695481103129</v>
+        <v>0.7817744848292179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1644</v>
@@ -786,19 +786,19 @@
         <v>1646684</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1600305</v>
+        <v>1599310</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1690958</v>
+        <v>1686169</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7016615922707885</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6818991384443499</v>
+        <v>0.68147520916181</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7205270118595228</v>
+        <v>0.7184861758119351</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>383767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353231</v>
+        <v>351919</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>414865</v>
+        <v>414799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3719669703345644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3423697404261163</v>
+        <v>0.3410980443082501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4021089373655401</v>
+        <v>0.4020448898666135</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>312</v>
@@ -836,19 +836,19 @@
         <v>316384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286077</v>
+        <v>286991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>348777</v>
+        <v>345157</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2405758497061096</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2175304518896871</v>
+        <v>0.2182255151707822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2652068225263089</v>
+        <v>0.2624541298369938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>685</v>
@@ -857,19 +857,19 @@
         <v>700151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>655877</v>
+        <v>660666</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>746530</v>
+        <v>747525</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2983384077292114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2794729881404772</v>
+        <v>0.2815138241880649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3181008615556501</v>
+        <v>0.31852479083819</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>599249</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>560712</v>
+        <v>558978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>638602</v>
+        <v>641671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3538706160137154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3311137309394113</v>
+        <v>0.3300895466208124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3771091972891141</v>
+        <v>0.3789215962542285</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>789</v>
@@ -982,19 +982,19 @@
         <v>803018</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>765800</v>
+        <v>762370</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>842350</v>
+        <v>844117</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5057828718149017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4823411175540406</v>
+        <v>0.4801806508897363</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5305562211591789</v>
+        <v>0.5316693373651883</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1378</v>
@@ -1003,19 +1003,19 @@
         <v>1402267</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1346309</v>
+        <v>1348826</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1458437</v>
+        <v>1464110</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.427378906731105</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4103242964450813</v>
+        <v>0.4110913862932127</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4444981576076678</v>
+        <v>0.4462271761528526</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1094164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1054811</v>
+        <v>1051742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1132701</v>
+        <v>1134435</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6461293839862846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6228908027108859</v>
+        <v>0.6210784037457715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6688862690605887</v>
+        <v>0.6699104533791876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>765</v>
@@ -1053,19 +1053,19 @@
         <v>784655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>745323</v>
+        <v>743556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>821873</v>
+        <v>825303</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4942171281850984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4694437788408209</v>
+        <v>0.4683306626348117</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5176588824459593</v>
+        <v>0.5198193491102636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1825</v>
@@ -1074,19 +1074,19 @@
         <v>1878819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1822649</v>
+        <v>1816976</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1934777</v>
+        <v>1932260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.572621093268895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5555018423923322</v>
+        <v>0.5537728238471474</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5896757035549186</v>
+        <v>0.5889086137067874</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>206597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182389</v>
+        <v>183372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>228168</v>
+        <v>229694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3746709416947882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.33076923084655</v>
+        <v>0.3325530270232406</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4137922270553074</v>
+        <v>0.4165599524938629</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>226</v>
@@ -1199,19 +1199,19 @@
         <v>239025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215895</v>
+        <v>217466</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259862</v>
+        <v>264223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5017184661013891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4531692635755934</v>
+        <v>0.4564667456368897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5454565610761749</v>
+        <v>0.5546109963154932</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>424</v>
@@ -1220,19 +1220,19 @@
         <v>445621</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>412530</v>
+        <v>416259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>476920</v>
+        <v>480804</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4335596033490486</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4013639133625125</v>
+        <v>0.4049924243152724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4640109886641554</v>
+        <v>0.4677903623806983</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>344811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>323240</v>
+        <v>321714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>369019</v>
+        <v>368036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6253290583052118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5862077729446926</v>
+        <v>0.5834400475061371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.66923076915345</v>
+        <v>0.6674469729767589</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>226</v>
@@ -1270,19 +1270,19 @@
         <v>237387</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>216550</v>
+        <v>212189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>260517</v>
+        <v>258946</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4982815338986109</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4545434389238253</v>
+        <v>0.4453890036845068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5468307364244067</v>
+        <v>0.5435332543631104</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>555</v>
@@ -1291,19 +1291,19 @@
         <v>582199</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>550900</v>
+        <v>547016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615290</v>
+        <v>611561</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5664403966509514</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5359890113358446</v>
+        <v>0.5322096376193017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5986360866374875</v>
+        <v>0.5950075756847276</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1453801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.443699761409807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1994</v>
@@ -1416,19 +1416,19 @@
         <v>2040770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6039217156034284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3446</v>
@@ -1437,19 +1437,19 @@
         <v>3494572</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5250463201909409</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1822742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1768386</v>
+        <v>1761067</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1884173</v>
+        <v>1874363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.556300238590193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5397109135600215</v>
+        <v>0.5374770264528339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5750489773783954</v>
+        <v>0.5720550130952761</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1303</v>
@@ -1487,19 +1487,19 @@
         <v>1338427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1287984</v>
+        <v>1284703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1397208</v>
+        <v>1392847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3960782843965715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.381150954849987</v>
+        <v>0.3801800737571366</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4134734847134272</v>
+        <v>0.4121829246674181</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3065</v>
@@ -1508,19 +1508,19 @@
         <v>3161169</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3083661</v>
+        <v>3075748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3253053</v>
+        <v>3236440</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4749536798090591</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4633084515387341</v>
+        <v>0.4621195901306294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4887590150726996</v>
+        <v>0.4862629803716479</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>735526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>709160</v>
+        <v>705536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>762246</v>
+        <v>761519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7546623680253699</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7276100780487473</v>
+        <v>0.7238920590147223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7820773652052094</v>
+        <v>0.7813314168129168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1071</v>
@@ -1872,19 +1872,19 @@
         <v>1146449</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1119283</v>
+        <v>1119464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1171313</v>
+        <v>1172877</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8569676564858782</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8366614752106621</v>
+        <v>0.8367967435639014</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.875553489440583</v>
+        <v>0.8767227651286579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1749</v>
@@ -1893,19 +1893,19 @@
         <v>1881975</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1844747</v>
+        <v>1841863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1919504</v>
+        <v>1916166</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8138482010869947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7977489628062565</v>
+        <v>0.7965020045315184</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8300773662915857</v>
+        <v>0.8286338342242566</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>239117</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212397</v>
+        <v>213124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>265483</v>
+        <v>269107</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2453376319746301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2179226347947906</v>
+        <v>0.2186685831870832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2723899219512527</v>
+        <v>0.2761079409852777</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>176</v>
@@ -1943,19 +1943,19 @@
         <v>191348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166484</v>
+        <v>164920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218514</v>
+        <v>218333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1430323435141217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.124446510559417</v>
+        <v>0.1232772348713419</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1633385247893376</v>
+        <v>0.1632032564360985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>406</v>
@@ -1964,19 +1964,19 @@
         <v>430465</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>392936</v>
+        <v>396274</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>467693</v>
+        <v>470577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1861517989130053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1699226337084145</v>
+        <v>0.1713661657757437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2022510371937436</v>
+        <v>0.2034979954684817</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>887561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>843218</v>
+        <v>842235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>935051</v>
+        <v>934052</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4519250367682775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4293465695007157</v>
+        <v>0.4288460512934616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4761054899134354</v>
+        <v>0.4755970791631597</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>935</v>
@@ -2089,19 +2089,19 @@
         <v>1015591</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>973260</v>
+        <v>969346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1059381</v>
+        <v>1057082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5777613868832607</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5536798660211546</v>
+        <v>0.5514533782503378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6026736188496569</v>
+        <v>0.6013657179203737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1770</v>
@@ -2110,19 +2110,19 @@
         <v>1903152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1842291</v>
+        <v>1835708</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1968463</v>
+        <v>1965621</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5113580649527417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4950053522347943</v>
+        <v>0.493236608399816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.528906571326633</v>
+        <v>0.5281429536014984</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1076396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1028906</v>
+        <v>1029905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1120739</v>
+        <v>1121722</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5480749632317224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5238945100865646</v>
+        <v>0.5244029208368403</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5706534304992845</v>
+        <v>0.5711539487065384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>700</v>
@@ -2160,19 +2160,19 @@
         <v>742212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>698422</v>
+        <v>700721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>784543</v>
+        <v>788457</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4222386131167393</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3973263811503431</v>
+        <v>0.3986342820796263</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4463201339788454</v>
+        <v>0.4485466217496621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1721</v>
@@ -2181,19 +2181,19 @@
         <v>1818608</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1753297</v>
+        <v>1756139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1879469</v>
+        <v>1886052</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4886419350472583</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.471093428673367</v>
+        <v>0.4718570463985015</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5049946477652056</v>
+        <v>0.506763391600184</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>219128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195965</v>
+        <v>196843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>241322</v>
+        <v>240895</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4553952078271761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.407258759932459</v>
+        <v>0.4090823962104964</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5015194195861263</v>
+        <v>0.5006326808742795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -2306,19 +2306,19 @@
         <v>238976</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>216310</v>
+        <v>216582</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261964</v>
+        <v>262009</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5210646779020874</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4716435187705464</v>
+        <v>0.4722366096850251</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.571186263892552</v>
+        <v>0.5712853716438635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>410</v>
@@ -2327,19 +2327,19 @@
         <v>458104</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>423120</v>
+        <v>427127</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>486898</v>
+        <v>489350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4874420891720462</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4502172818932091</v>
+        <v>0.4544803137096549</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5180800369814116</v>
+        <v>0.520689173503895</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>262053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239859</v>
+        <v>240286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285216</v>
+        <v>284338</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5446047921728239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4984805804138737</v>
+        <v>0.4993673191257206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5927412400675411</v>
+        <v>0.5909176037895038</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>201</v>
@@ -2377,19 +2377,19 @@
         <v>219655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>196667</v>
+        <v>196622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242321</v>
+        <v>242049</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4789353220979125</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.428813736107448</v>
+        <v>0.4287146283561364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5283564812294536</v>
+        <v>0.5277633903149749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>440</v>
@@ -2398,19 +2398,19 @@
         <v>481709</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>452915</v>
+        <v>450463</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>516693</v>
+        <v>512686</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5125579108279538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4819199630185886</v>
+        <v>0.4793108264961049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5497827181067909</v>
+        <v>0.5455196862903451</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1842216</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1782952</v>
+        <v>1780469</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1895988</v>
+        <v>1902512</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5386939064544555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5213642487054113</v>
+        <v>0.5206380816817915</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5544177473120988</v>
+        <v>0.5563256487522564</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2217</v>
@@ -2523,19 +2523,19 @@
         <v>2401015</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2347154</v>
+        <v>2341804</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2461465</v>
+        <v>2461015</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6755373556693317</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6603831874609001</v>
+        <v>0.6588780091335806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6925451527886723</v>
+        <v>0.692418576741015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3929</v>
@@ -2544,19 +2544,19 @@
         <v>4243231</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4154846</v>
+        <v>4166305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4327260</v>
+        <v>4333096</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6084346987509427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.595761262024821</v>
+        <v>0.5974043128372261</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6204836047405546</v>
+        <v>0.6213204393731189</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1577566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1523794</v>
+        <v>1517270</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1636830</v>
+        <v>1639313</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4613060935455445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4455822526879012</v>
+        <v>0.4436743512477437</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4786357512945887</v>
+        <v>0.4793619183182086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1077</v>
@@ -2594,19 +2594,19 @@
         <v>1153215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1092765</v>
+        <v>1093215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1207076</v>
+        <v>1212426</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3244626443306683</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3074548472113278</v>
+        <v>0.307581423258985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3396168125391</v>
+        <v>0.3411219908664195</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2567</v>
@@ -2615,19 +2615,19 @@
         <v>2730781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2646752</v>
+        <v>2640916</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2819166</v>
+        <v>2807707</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3915653012490573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3795163952594456</v>
+        <v>0.3786795606268812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4042387379751793</v>
+        <v>0.402595687162774</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>523930</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>497958</v>
+        <v>498872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>549006</v>
+        <v>547879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6945483111366931</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6601182103629019</v>
+        <v>0.6613300577985682</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7277902263817472</v>
+        <v>0.7262962364677015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>736</v>
@@ -2979,19 +2979,19 @@
         <v>835711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>807521</v>
+        <v>812500</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>855453</v>
+        <v>857801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.84019736672431</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8118559602300196</v>
+        <v>0.8168621973340348</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8600454108584185</v>
+        <v>0.8624057498018239</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1276</v>
@@ -3000,19 +3000,19 @@
         <v>1359641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1324093</v>
+        <v>1323877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1394133</v>
+        <v>1392241</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7773789223853421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7570539035793734</v>
+        <v>0.7569308056300382</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7970998934575174</v>
+        <v>0.7960179194799148</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>230417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205341</v>
+        <v>206468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>256389</v>
+        <v>255475</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3054516888633069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.272209773618253</v>
+        <v>0.2737037635322986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3398817896370982</v>
+        <v>0.3386699422014322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>156</v>
@@ -3050,19 +3050,19 @@
         <v>158949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139207</v>
+        <v>136859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187139</v>
+        <v>182160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.15980263327569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1399545891415816</v>
+        <v>0.1375942501981761</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1881440397699805</v>
+        <v>0.1831378026659653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>378</v>
@@ -3071,19 +3071,19 @@
         <v>389366</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>354874</v>
+        <v>356766</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>424914</v>
+        <v>425130</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2226210776146579</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2029001065424825</v>
+        <v>0.2039820805200854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2429460964206265</v>
+        <v>0.243069194369962</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>943782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>895695</v>
+        <v>895205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>990619</v>
+        <v>992279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4545313258821103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4313722254076084</v>
+        <v>0.4311364745397799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4770882206972241</v>
+        <v>0.4778878452344344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1006</v>
@@ -3196,19 +3196,19 @@
         <v>1076189</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1025853</v>
+        <v>1028894</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1117726</v>
+        <v>1115774</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5412609421502611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5159449625958089</v>
+        <v>0.5174742343821305</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5621516637732555</v>
+        <v>0.5611700177901078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1895</v>
@@ -3217,19 +3217,19 @@
         <v>2019971</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1952052</v>
+        <v>1952136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2078165</v>
+        <v>2085235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4969563847393205</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4802467821475497</v>
+        <v>0.4802674353407032</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5112734015810705</v>
+        <v>0.5130127668919466</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1132603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1085766</v>
+        <v>1084106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1180690</v>
+        <v>1181180</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5454686741178898</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5229117793027759</v>
+        <v>0.5221121547655655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5686277745923913</v>
+        <v>0.5688635254602198</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>902</v>
@@ -3267,19 +3267,19 @@
         <v>912111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>870574</v>
+        <v>872526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962447</v>
+        <v>959406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.458739057849739</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4378483362267445</v>
+        <v>0.4388299822098922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4840550374041911</v>
+        <v>0.4825257656178696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1965</v>
@@ -3288,19 +3288,19 @@
         <v>2044714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1986520</v>
+        <v>1979450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2112633</v>
+        <v>2112549</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5030436152606795</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4887265984189295</v>
+        <v>0.4869872331080534</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5197532178524502</v>
+        <v>0.5197325646592967</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>212865</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189517</v>
+        <v>191463</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>235689</v>
+        <v>239385</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3892315987453385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.346537552199</v>
+        <v>0.3500965670506931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4309654122513683</v>
+        <v>0.4377236887659408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -3413,19 +3413,19 @@
         <v>256988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232509</v>
+        <v>229556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>282399</v>
+        <v>280869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4679826465618528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4234063886162313</v>
+        <v>0.4180278991334248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5142570755471129</v>
+        <v>0.5114713939249477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>430</v>
@@ -3434,19 +3434,19 @@
         <v>469854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>437772</v>
+        <v>438229</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>504407</v>
+        <v>506580</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4286881043306842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3994171368945507</v>
+        <v>0.3998341422040399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4602141262324409</v>
+        <v>0.4621968101599682</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>334021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311197</v>
+        <v>307501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>357369</v>
+        <v>355423</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6107684012546615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5690345877486315</v>
+        <v>0.5622763112340593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6534624478009998</v>
+        <v>0.6499034329493069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -3484,19 +3484,19 @@
         <v>292152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266741</v>
+        <v>268271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316631</v>
+        <v>319584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5320173534381472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4857429244528872</v>
+        <v>0.4885286060750517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5765936113837687</v>
+        <v>0.5819721008665751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>597</v>
@@ -3505,19 +3505,19 @@
         <v>626173</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591620</v>
+        <v>589447</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658255</v>
+        <v>657798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5713118956693157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.539785873767559</v>
+        <v>0.5378031898400321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6005828631054493</v>
+        <v>0.6001658577959601</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1680578</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1623914</v>
+        <v>1617329</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1743652</v>
+        <v>1736941</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4975629899939241</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4807866816703854</v>
+        <v>0.4788372897354475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5162372451793025</v>
+        <v>0.5142503431427015</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1981</v>
@@ -3630,19 +3630,19 @@
         <v>2168888</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2103475</v>
+        <v>2107589</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2226386</v>
+        <v>2234886</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6140505142491226</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.595531017618691</v>
+        <v>0.596695851833198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6303293825687534</v>
+        <v>0.6327358688283221</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3601</v>
@@ -3651,19 +3651,19 @@
         <v>3849466</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3760064</v>
+        <v>3765092</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3925656</v>
+        <v>3932346</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5571089253423579</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5441703885480832</v>
+        <v>0.544898093680291</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5681354348064503</v>
+        <v>0.5691036517174873</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1697040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1633966</v>
+        <v>1640677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1753704</v>
+        <v>1760289</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.502437010006076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4837627548206979</v>
+        <v>0.4857496568572986</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5192133183296146</v>
+        <v>0.5211627102645525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1345</v>
@@ -3701,19 +3701,19 @@
         <v>1363212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1305714</v>
+        <v>1297214</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1428625</v>
+        <v>1424511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3859494857508773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3696706174312466</v>
+        <v>0.3672641311716779</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4044689823813091</v>
+        <v>0.403304148166802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2940</v>
@@ -3722,19 +3722,19 @@
         <v>3060252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2984062</v>
+        <v>2977372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3149654</v>
+        <v>3144626</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4428910746576421</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4318645651935497</v>
+        <v>0.4308963482825127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4558296114519169</v>
+        <v>0.4551019063197092</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>291268</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>268328</v>
+        <v>268553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>313845</v>
+        <v>316000</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5034631587336329</v>
+        <v>0.5034631587336328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4638101541520028</v>
+        <v>0.4642005156591678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5424886506803398</v>
+        <v>0.5462122532350383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>948</v>
@@ -4086,19 +4086,19 @@
         <v>517509</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>493561</v>
+        <v>496561</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>539026</v>
+        <v>539708</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6295441708012731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6004108664564195</v>
+        <v>0.6040611196113397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6557192779601326</v>
+        <v>0.6565484605848818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1337</v>
@@ -4107,19 +4107,19 @@
         <v>808777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>776422</v>
+        <v>775640</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>844032</v>
+        <v>843571</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5774641492701087</v>
+        <v>0.5774641492701086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5543626739001628</v>
+        <v>0.55380450520849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6026360813721321</v>
+        <v>0.6023069836182861</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>287261</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264684</v>
+        <v>262529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310201</v>
+        <v>309976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4965368412663672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4575113493196603</v>
+        <v>0.4537877467649617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5361898458479973</v>
+        <v>0.5357994843408319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>479</v>
@@ -4157,19 +4157,19 @@
         <v>304529</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283012</v>
+        <v>282330</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>328477</v>
+        <v>325477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.370455829198727</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3442807220398668</v>
+        <v>0.3434515394151181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3995891335435803</v>
+        <v>0.3959388803886602</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -4178,19 +4178,19 @@
         <v>591790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>556535</v>
+        <v>556996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>624145</v>
+        <v>624927</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4225358507298915</v>
+        <v>0.4225358507298914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.397363918627868</v>
+        <v>0.397693016381714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4456373260998372</v>
+        <v>0.4461954947915104</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>675345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>627187</v>
+        <v>631995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>720732</v>
+        <v>727932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3027686105483823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2811782830915328</v>
+        <v>0.2833340257865726</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3231159846941558</v>
+        <v>0.3263439314286204</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1090</v>
@@ -4303,19 +4303,19 @@
         <v>743212</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>702533</v>
+        <v>705311</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>782525</v>
+        <v>782042</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3422745865490227</v>
+        <v>0.3422745865490225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3235404648152876</v>
+        <v>0.3248199585840751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3603795599052869</v>
+        <v>0.3601570704404465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1760</v>
@@ -4324,19 +4324,19 @@
         <v>1418558</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1354062</v>
+        <v>1355837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1480672</v>
+        <v>1485522</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3222560649910253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3076044518418306</v>
+        <v>0.3080076744317201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3363666187304633</v>
+        <v>0.3374683489665061</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1555221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1509834</v>
+        <v>1502634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1603379</v>
+        <v>1598571</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6972313894516178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6768840153058442</v>
+        <v>0.6736560685713796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7188217169084672</v>
+        <v>0.7166659742134278</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1831</v>
@@ -4374,19 +4374,19 @@
         <v>1428180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1388867</v>
+        <v>1389350</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1468859</v>
+        <v>1466081</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6577254134509776</v>
+        <v>0.6577254134509773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.639620440094713</v>
+        <v>0.6398429295595536</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6764595351847124</v>
+        <v>0.675180041415925</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3153</v>
@@ -4395,19 +4395,19 @@
         <v>2983401</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2921287</v>
+        <v>2916437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3047897</v>
+        <v>3046122</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6777439350089748</v>
+        <v>0.6777439350089746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6636333812695367</v>
+        <v>0.6625316510334939</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6923955481581696</v>
+        <v>0.6919923255682798</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>194718</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168852</v>
+        <v>171389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222360</v>
+        <v>219796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2736396463822272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2372894904726066</v>
+        <v>0.240854175281172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3124850262869016</v>
+        <v>0.3088818748634959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>307</v>
@@ -4520,19 +4520,19 @@
         <v>220042</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>198138</v>
+        <v>197021</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>241888</v>
+        <v>242565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2994267372519406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2696200438942942</v>
+        <v>0.2681001093625155</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3291547140339112</v>
+        <v>0.3300751092002552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>509</v>
@@ -4541,19 +4541,19 @@
         <v>414760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>379684</v>
+        <v>380915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>449499</v>
+        <v>449113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2867407972806363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2624910336751348</v>
+        <v>0.2633421596348337</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3107569819477602</v>
+        <v>0.3104901880269585</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>516869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>489227</v>
+        <v>491791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542735</v>
+        <v>540198</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7263603536177728</v>
+        <v>0.7263603536177727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6875149737130984</v>
+        <v>0.6911181251365042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7627105095273935</v>
+        <v>0.759145824718828</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>697</v>
@@ -4591,19 +4591,19 @@
         <v>514835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>492989</v>
+        <v>492312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>536739</v>
+        <v>537856</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7005732627480593</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6708452859660887</v>
+        <v>0.6699248907997448</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7303799561057059</v>
+        <v>0.7318998906374845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1176</v>
@@ -4612,19 +4612,19 @@
         <v>1031704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>996965</v>
+        <v>997351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1066780</v>
+        <v>1065549</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7132592027193638</v>
+        <v>0.7132592027193636</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6892430180522399</v>
+        <v>0.6895098119730414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7375089663248652</v>
+        <v>0.736657840365166</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1161332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1102972</v>
+        <v>1097351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1229864</v>
+        <v>1231220</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3298599197864117</v>
+        <v>0.3298599197864118</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3132834093269449</v>
+        <v>0.3116868935845006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3493254918270513</v>
+        <v>0.3497105718077772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2345</v>
@@ -4737,19 +4737,19 @@
         <v>1480763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1429252</v>
+        <v>1432465</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1535147</v>
+        <v>1535396</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3971677458042518</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3833515417038937</v>
+        <v>0.3842133762611084</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.41175432161096</v>
+        <v>0.4118212082926486</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3606</v>
@@ -4758,19 +4758,19 @@
         <v>2642096</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2563091</v>
+        <v>2564880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2719334</v>
+        <v>2721479</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3644777430950684</v>
+        <v>0.3644777430950685</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3535790703076712</v>
+        <v>0.353825895554245</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3751327699096035</v>
+        <v>0.3754287315619704</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2359351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2290819</v>
+        <v>2289463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2417711</v>
+        <v>2423332</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6701400802135883</v>
+        <v>0.6701400802135884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6506745081729488</v>
+        <v>0.6502894281922229</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6867165906730552</v>
+        <v>0.6883131064154995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3007</v>
@@ -4808,19 +4808,19 @@
         <v>2247544</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2193160</v>
+        <v>2192911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2299055</v>
+        <v>2295842</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6028322541957482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.58824567838904</v>
+        <v>0.5881787917073514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6166484582961064</v>
+        <v>0.6157866237388915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5110</v>
@@ -4829,19 +4829,19 @@
         <v>4606894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4529656</v>
+        <v>4527511</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4685899</v>
+        <v>4684110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6355222569049316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6248672300903966</v>
+        <v>0.6245712684380295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6464209296923287</v>
+        <v>0.646174104445755</v>
       </c>
     </row>
     <row r="15">
